--- a/_Resources/配置表/游戏配置表/Role.xlsx
+++ b/_Resources/配置表/游戏配置表/Role.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RoleData" sheetId="4" r:id="rId1"/>
@@ -29,12 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>RolekeyId</t>
+    <t>Rolekey</t>
   </si>
   <si>
     <t>LabeID_list</t>
@@ -43,6 +43,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>list&lt;int&gt;</t>
   </si>
   <si>
@@ -58,33 +61,36 @@
     <t>A</t>
   </si>
   <si>
+    <t>Fuxi</t>
+  </si>
+  <si>
+    <t>Nuwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Chiyou</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
     <t>desc</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>名称</t>
   </si>
   <si>
     <t>中文描述</t>
   </si>
   <si>
-    <t>Fuxi</t>
-  </si>
-  <si>
     <t>伏羲</t>
   </si>
   <si>
-    <t>Nuwa</t>
-  </si>
-  <si>
     <t>女娲</t>
   </si>
   <si>
+    <t>蚩尤</t>
+  </si>
+  <si>
     <t>CanLove</t>
   </si>
   <si>
@@ -95,6 +101,12 @@
   </si>
   <si>
     <t>多情,可以爱多个</t>
+  </si>
+  <si>
+    <t>CanDie</t>
+  </si>
+  <si>
+    <t>能死亡</t>
   </si>
 </sst>
 </file>
@@ -751,7 +763,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,10 +779,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -835,6 +850,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1127,7 +1149,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1153,170 +1175,176 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7">
+    <row r="7" spans="1:3">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1327,13 +1355,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="3" max="3" width="23.75" customWidth="1"/>
   </cols>
@@ -1343,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
@@ -1354,32 +1382,32 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -1387,10 +1415,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:3">
@@ -1398,11 +1426,27 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1415,8 +1459,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1430,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
@@ -1441,32 +1485,32 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
@@ -1474,10 +1518,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:3">
@@ -1485,16 +1529,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
